--- a/Analysis/ANOVA.xlsx
+++ b/Analysis/ANOVA.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
-  <si>
-    <t>total_bill</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>Heart_rate</t>
   </si>
   <si>
     <t>sum_sq</t>
@@ -50,136 +50,28 @@
     <t>reject</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>3.191</t>
-  </si>
-  <si>
-    <t>-2.4816</t>
-  </si>
-  <si>
-    <t>8.8637</t>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>-3.5515</t>
+  </si>
+  <si>
+    <t>-9.1136</t>
+  </si>
+  <si>
+    <t>2.0105</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
     <t>Residual</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>3.9915</t>
-  </si>
-  <si>
-    <t>-1.8482</t>
-  </si>
-  <si>
-    <t>9.8313</t>
-  </si>
-  <si>
-    <t>Thur</t>
-  </si>
-  <si>
-    <t>0.4133</t>
-  </si>
-  <si>
-    <t>-5.5608</t>
-  </si>
-  <si>
-    <t>6.3875</t>
-  </si>
-  <si>
-    <t>0.8005</t>
-  </si>
-  <si>
-    <t>-2.9777</t>
-  </si>
-  <si>
-    <t>4.5787</t>
-  </si>
-  <si>
-    <t>-2.7777</t>
-  </si>
-  <si>
-    <t>-6.7606</t>
-  </si>
-  <si>
-    <t>1.2051</t>
-  </si>
-  <si>
-    <t>-3.5782</t>
-  </si>
-  <si>
-    <t>-7.7956</t>
-  </si>
-  <si>
-    <t>0.6392</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>0.1859</t>
-  </si>
-  <si>
-    <t>-0.6788</t>
-  </si>
-  <si>
-    <t>1.0506</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>-0.4692</t>
-  </si>
-  <si>
-    <t>1.3112</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>-0.8936</t>
-  </si>
-  <si>
-    <t>0.9277</t>
-  </si>
-  <si>
-    <t>0.2351</t>
-  </si>
-  <si>
-    <t>-0.3408</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>-0.1689</t>
-  </si>
-  <si>
-    <t>-0.776</t>
-  </si>
-  <si>
-    <t>0.4383</t>
-  </si>
-  <si>
-    <t>-0.404</t>
-  </si>
-  <si>
-    <t>-1.0469</t>
-  </si>
-  <si>
-    <t>0.2389</t>
   </si>
 </sst>
 </file>
@@ -528,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:AE10"/>
+  <dimension ref="B3:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,15 +428,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -575,52 +464,22 @@
       <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:15">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>514.4466708881994</v>
+        <v>3071.758550884292</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2.328582559709216</v>
+        <v>1.569954753534281</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0755888786338768</v>
+        <v>0.2105001827491658</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0</v>
@@ -643,284 +502,19 @@
       <c r="O5" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.459795202153894</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.063548498930214</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.3655783789030373</v>
-      </c>
-      <c r="Y5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:15">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>15243.9603840881</v>
+        <v>1999635.487542856</v>
       </c>
       <c r="D6" t="n">
-        <v>207</v>
+        <v>1022</v>
       </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>354.2159754139598</v>
-      </c>
-      <c r="T6" t="n">
-        <v>207</v>
-      </c>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="Y6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="I8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="I9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="I10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Analysis/ANOVA.xlsx
+++ b/Analysis/ANOVA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>Heart_rate</t>
   </si>
@@ -32,6 +31,12 @@
     <t>PR(&gt;F)</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
     <t>group1</t>
   </si>
   <si>
@@ -50,9 +55,6 @@
     <t>reject</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Case</t>
   </si>
   <si>
@@ -71,29 +73,93 @@
     <t>False</t>
   </si>
   <si>
-    <t>Residual</t>
+    <t>Stroke_work</t>
+  </si>
+  <si>
+    <t>248.7593</t>
+  </si>
+  <si>
+    <t>-566.6373</t>
+  </si>
+  <si>
+    <t>1064.1559</t>
+  </si>
+  <si>
+    <t>dPdt_max</t>
+  </si>
+  <si>
+    <t>1608.3829</t>
+  </si>
+  <si>
+    <t>1165.3147</t>
+  </si>
+  <si>
+    <t>2051.451</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>dPdt_min</t>
+  </si>
+  <si>
+    <t>-2017.5694</t>
+  </si>
+  <si>
+    <t>-2242.0623</t>
+  </si>
+  <si>
+    <t>-1793.0765</t>
+  </si>
+  <si>
+    <t>dVdt_max</t>
+  </si>
+  <si>
+    <t>-1753.6888</t>
+  </si>
+  <si>
+    <t>-2237.4792</t>
+  </si>
+  <si>
+    <t>-1269.8985</t>
+  </si>
+  <si>
+    <t>dVdt_min</t>
+  </si>
+  <si>
+    <t>276.2372</t>
+  </si>
+  <si>
+    <t>-176.0689</t>
+  </si>
+  <si>
+    <t>728.5432</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,26 +174,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,25 +490,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B3:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:CQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="2:95">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="2:95">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,76 +531,449 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:95">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="C5">
+        <v>3071.758550884292</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.569954753534281</v>
+      </c>
+      <c r="F5">
+        <v>0.2105001827491658</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>15069944.69064387</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0.3583821618884099</v>
+      </c>
+      <c r="V5">
+        <v>0.5495387740785767</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>629987350.9474099</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>50.74148917300404</v>
+      </c>
+      <c r="AL5">
+        <v>1.985813863815866e-12</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY5">
+        <v>991311009.9590864</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>311.012043514503</v>
+      </c>
+      <c r="BB5">
+        <v>5.635733868558396e-61</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO5">
+        <v>748958979.3718833</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>50.59599906723622</v>
+      </c>
+      <c r="BR5">
+        <v>2.131133273355627e-12</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE5">
+        <v>18583060.27831864</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>1.436233036212098</v>
+      </c>
+      <c r="CH5">
+        <v>0.2310277165418824</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>37</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>38</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:95">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3071.758550884292</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.569954753534281</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2105001827491658</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1999635.487542856</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1022</v>
       </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
+      <c r="R6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>42975028089.24298</v>
+      </c>
+      <c r="T6">
+        <v>1022</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI6">
+        <v>12688769745.66207</v>
+      </c>
+      <c r="AJ6">
+        <v>1022</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY6">
+        <v>3257493956.599603</v>
+      </c>
+      <c r="AZ6">
+        <v>1022</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO6">
+        <v>15128391395.15535</v>
+      </c>
+      <c r="BP6">
+        <v>1022</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE6">
+        <v>13223402557.65916</v>
+      </c>
+      <c r="CF6">
+        <v>1022</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>